--- a/municipal/ENG/Construction/Permissions granted/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
+++ b/municipal/ENG/Construction/Permissions granted/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Construction\Samegrelo-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Completed Construction\Samegrelo-Zemo SvaneTi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,45 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t xml:space="preserve">(Declared Data) </t>
-  </si>
-  <si>
-    <t>...- Data is Missing or Confidential</t>
-  </si>
-  <si>
-    <t>2022               Jenuari - June</t>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Completed construction objects in Mestia Municipality</t>
+  </si>
+  <si>
     <r>
-      <t>Space, m</t>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
         <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
     </r>
   </si>
   <si>
-    <t>Permission granted for construction in Mestia Municipality</t>
+    <t>Area, sq.m.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ###\ ##0"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +108,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <b/>
+      <u/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -123,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,11 +169,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -167,9 +194,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -186,15 +210,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -484,217 +514,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="8" customWidth="1"/>
-    <col min="2" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="256" width="9.140625" style="1"/>
-    <col min="257" max="257" width="30.85546875" style="1" customWidth="1"/>
-    <col min="258" max="270" width="14.5703125" style="1" customWidth="1"/>
-    <col min="271" max="512" width="9.140625" style="1"/>
-    <col min="513" max="513" width="30.85546875" style="1" customWidth="1"/>
-    <col min="514" max="526" width="14.5703125" style="1" customWidth="1"/>
-    <col min="527" max="768" width="9.140625" style="1"/>
-    <col min="769" max="769" width="30.85546875" style="1" customWidth="1"/>
-    <col min="770" max="782" width="14.5703125" style="1" customWidth="1"/>
-    <col min="783" max="1024" width="9.140625" style="1"/>
-    <col min="1025" max="1025" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1026" max="1038" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1039" max="1280" width="9.140625" style="1"/>
-    <col min="1281" max="1281" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1282" max="1294" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1295" max="1536" width="9.140625" style="1"/>
-    <col min="1537" max="1537" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1538" max="1550" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1551" max="1792" width="9.140625" style="1"/>
-    <col min="1793" max="1793" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1794" max="1806" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1807" max="2048" width="9.140625" style="1"/>
-    <col min="2049" max="2049" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2050" max="2062" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2063" max="2304" width="9.140625" style="1"/>
-    <col min="2305" max="2305" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2306" max="2318" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2319" max="2560" width="9.140625" style="1"/>
-    <col min="2561" max="2561" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2562" max="2574" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2575" max="2816" width="9.140625" style="1"/>
-    <col min="2817" max="2817" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2818" max="2830" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2831" max="3072" width="9.140625" style="1"/>
-    <col min="3073" max="3073" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3074" max="3086" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3087" max="3328" width="9.140625" style="1"/>
-    <col min="3329" max="3329" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3330" max="3342" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3343" max="3584" width="9.140625" style="1"/>
-    <col min="3585" max="3585" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3586" max="3598" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3599" max="3840" width="9.140625" style="1"/>
-    <col min="3841" max="3841" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3842" max="3854" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3855" max="4096" width="9.140625" style="1"/>
-    <col min="4097" max="4097" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4098" max="4110" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4111" max="4352" width="9.140625" style="1"/>
-    <col min="4353" max="4353" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4354" max="4366" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4367" max="4608" width="9.140625" style="1"/>
-    <col min="4609" max="4609" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4610" max="4622" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4623" max="4864" width="9.140625" style="1"/>
-    <col min="4865" max="4865" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4866" max="4878" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4879" max="5120" width="9.140625" style="1"/>
-    <col min="5121" max="5121" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5122" max="5134" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5135" max="5376" width="9.140625" style="1"/>
-    <col min="5377" max="5377" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5378" max="5390" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5391" max="5632" width="9.140625" style="1"/>
-    <col min="5633" max="5633" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5634" max="5646" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5647" max="5888" width="9.140625" style="1"/>
-    <col min="5889" max="5889" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5890" max="5902" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5903" max="6144" width="9.140625" style="1"/>
-    <col min="6145" max="6145" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6146" max="6158" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6159" max="6400" width="9.140625" style="1"/>
-    <col min="6401" max="6401" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6402" max="6414" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6415" max="6656" width="9.140625" style="1"/>
-    <col min="6657" max="6657" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6658" max="6670" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6671" max="6912" width="9.140625" style="1"/>
-    <col min="6913" max="6913" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6914" max="6926" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6927" max="7168" width="9.140625" style="1"/>
-    <col min="7169" max="7169" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7170" max="7182" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7183" max="7424" width="9.140625" style="1"/>
-    <col min="7425" max="7425" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7426" max="7438" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7439" max="7680" width="9.140625" style="1"/>
-    <col min="7681" max="7681" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7682" max="7694" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7695" max="7936" width="9.140625" style="1"/>
-    <col min="7937" max="7937" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7938" max="7950" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7951" max="8192" width="9.140625" style="1"/>
-    <col min="8193" max="8193" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8194" max="8206" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8207" max="8448" width="9.140625" style="1"/>
-    <col min="8449" max="8449" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8450" max="8462" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8463" max="8704" width="9.140625" style="1"/>
-    <col min="8705" max="8705" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8706" max="8718" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8719" max="8960" width="9.140625" style="1"/>
-    <col min="8961" max="8961" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8962" max="8974" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8975" max="9216" width="9.140625" style="1"/>
-    <col min="9217" max="9217" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9218" max="9230" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9231" max="9472" width="9.140625" style="1"/>
-    <col min="9473" max="9473" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9474" max="9486" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9487" max="9728" width="9.140625" style="1"/>
-    <col min="9729" max="9729" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9730" max="9742" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9743" max="9984" width="9.140625" style="1"/>
-    <col min="9985" max="9985" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9986" max="9998" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9999" max="10240" width="9.140625" style="1"/>
-    <col min="10241" max="10241" width="30.85546875" style="1" customWidth="1"/>
-    <col min="10242" max="10254" width="14.5703125" style="1" customWidth="1"/>
-    <col min="10255" max="10496" width="9.140625" style="1"/>
-    <col min="10497" max="10497" width="30.85546875" style="1" customWidth="1"/>
-    <col min="10498" max="10510" width="14.5703125" style="1" customWidth="1"/>
-    <col min="10511" max="10752" width="9.140625" style="1"/>
-    <col min="10753" max="10753" width="30.85546875" style="1" customWidth="1"/>
-    <col min="10754" max="10766" width="14.5703125" style="1" customWidth="1"/>
-    <col min="10767" max="11008" width="9.140625" style="1"/>
-    <col min="11009" max="11009" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11010" max="11022" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11023" max="11264" width="9.140625" style="1"/>
-    <col min="11265" max="11265" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11266" max="11278" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11279" max="11520" width="9.140625" style="1"/>
-    <col min="11521" max="11521" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11522" max="11534" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11535" max="11776" width="9.140625" style="1"/>
-    <col min="11777" max="11777" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11778" max="11790" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11791" max="12032" width="9.140625" style="1"/>
-    <col min="12033" max="12033" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12034" max="12046" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12047" max="12288" width="9.140625" style="1"/>
-    <col min="12289" max="12289" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12290" max="12302" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12303" max="12544" width="9.140625" style="1"/>
-    <col min="12545" max="12545" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12546" max="12558" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12559" max="12800" width="9.140625" style="1"/>
-    <col min="12801" max="12801" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12802" max="12814" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12815" max="13056" width="9.140625" style="1"/>
-    <col min="13057" max="13057" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13058" max="13070" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13071" max="13312" width="9.140625" style="1"/>
-    <col min="13313" max="13313" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13314" max="13326" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13327" max="13568" width="9.140625" style="1"/>
-    <col min="13569" max="13569" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13570" max="13582" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13583" max="13824" width="9.140625" style="1"/>
-    <col min="13825" max="13825" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13826" max="13838" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13839" max="14080" width="9.140625" style="1"/>
-    <col min="14081" max="14081" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14082" max="14094" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14095" max="14336" width="9.140625" style="1"/>
-    <col min="14337" max="14337" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14338" max="14350" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14351" max="14592" width="9.140625" style="1"/>
-    <col min="14593" max="14593" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14594" max="14606" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14607" max="14848" width="9.140625" style="1"/>
-    <col min="14849" max="14849" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14850" max="14862" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14863" max="15104" width="9.140625" style="1"/>
-    <col min="15105" max="15105" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15106" max="15118" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15119" max="15360" width="9.140625" style="1"/>
-    <col min="15361" max="15361" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15362" max="15374" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15375" max="15616" width="9.140625" style="1"/>
-    <col min="15617" max="15617" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15618" max="15630" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15631" max="15872" width="9.140625" style="1"/>
-    <col min="15873" max="15873" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15874" max="15886" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15887" max="16128" width="9.140625" style="1"/>
-    <col min="16129" max="16129" width="30.85546875" style="1" customWidth="1"/>
-    <col min="16130" max="16142" width="14.5703125" style="1" customWidth="1"/>
-    <col min="16143" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.85546875" style="7" customWidth="1"/>
+    <col min="2" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="255" width="9.140625" style="1"/>
+    <col min="256" max="256" width="30.85546875" style="1" customWidth="1"/>
+    <col min="257" max="269" width="14.5703125" style="1" customWidth="1"/>
+    <col min="270" max="511" width="9.140625" style="1"/>
+    <col min="512" max="512" width="30.85546875" style="1" customWidth="1"/>
+    <col min="513" max="525" width="14.5703125" style="1" customWidth="1"/>
+    <col min="526" max="767" width="9.140625" style="1"/>
+    <col min="768" max="768" width="30.85546875" style="1" customWidth="1"/>
+    <col min="769" max="781" width="14.5703125" style="1" customWidth="1"/>
+    <col min="782" max="1023" width="9.140625" style="1"/>
+    <col min="1024" max="1024" width="30.85546875" style="1" customWidth="1"/>
+    <col min="1025" max="1037" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1038" max="1279" width="9.140625" style="1"/>
+    <col min="1280" max="1280" width="30.85546875" style="1" customWidth="1"/>
+    <col min="1281" max="1293" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1294" max="1535" width="9.140625" style="1"/>
+    <col min="1536" max="1536" width="30.85546875" style="1" customWidth="1"/>
+    <col min="1537" max="1549" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1550" max="1791" width="9.140625" style="1"/>
+    <col min="1792" max="1792" width="30.85546875" style="1" customWidth="1"/>
+    <col min="1793" max="1805" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1806" max="2047" width="9.140625" style="1"/>
+    <col min="2048" max="2048" width="30.85546875" style="1" customWidth="1"/>
+    <col min="2049" max="2061" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2062" max="2303" width="9.140625" style="1"/>
+    <col min="2304" max="2304" width="30.85546875" style="1" customWidth="1"/>
+    <col min="2305" max="2317" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2318" max="2559" width="9.140625" style="1"/>
+    <col min="2560" max="2560" width="30.85546875" style="1" customWidth="1"/>
+    <col min="2561" max="2573" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2574" max="2815" width="9.140625" style="1"/>
+    <col min="2816" max="2816" width="30.85546875" style="1" customWidth="1"/>
+    <col min="2817" max="2829" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2830" max="3071" width="9.140625" style="1"/>
+    <col min="3072" max="3072" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3073" max="3085" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3086" max="3327" width="9.140625" style="1"/>
+    <col min="3328" max="3328" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3329" max="3341" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3342" max="3583" width="9.140625" style="1"/>
+    <col min="3584" max="3584" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3585" max="3597" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3598" max="3839" width="9.140625" style="1"/>
+    <col min="3840" max="3840" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3841" max="3853" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3854" max="4095" width="9.140625" style="1"/>
+    <col min="4096" max="4096" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4097" max="4109" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4110" max="4351" width="9.140625" style="1"/>
+    <col min="4352" max="4352" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4353" max="4365" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4366" max="4607" width="9.140625" style="1"/>
+    <col min="4608" max="4608" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4609" max="4621" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4622" max="4863" width="9.140625" style="1"/>
+    <col min="4864" max="4864" width="30.85546875" style="1" customWidth="1"/>
+    <col min="4865" max="4877" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4878" max="5119" width="9.140625" style="1"/>
+    <col min="5120" max="5120" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5121" max="5133" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5134" max="5375" width="9.140625" style="1"/>
+    <col min="5376" max="5376" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5377" max="5389" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5390" max="5631" width="9.140625" style="1"/>
+    <col min="5632" max="5632" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5633" max="5645" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5646" max="5887" width="9.140625" style="1"/>
+    <col min="5888" max="5888" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5889" max="5901" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5902" max="6143" width="9.140625" style="1"/>
+    <col min="6144" max="6144" width="30.85546875" style="1" customWidth="1"/>
+    <col min="6145" max="6157" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6158" max="6399" width="9.140625" style="1"/>
+    <col min="6400" max="6400" width="30.85546875" style="1" customWidth="1"/>
+    <col min="6401" max="6413" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6414" max="6655" width="9.140625" style="1"/>
+    <col min="6656" max="6656" width="30.85546875" style="1" customWidth="1"/>
+    <col min="6657" max="6669" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6670" max="6911" width="9.140625" style="1"/>
+    <col min="6912" max="6912" width="30.85546875" style="1" customWidth="1"/>
+    <col min="6913" max="6925" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6926" max="7167" width="9.140625" style="1"/>
+    <col min="7168" max="7168" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7169" max="7181" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7182" max="7423" width="9.140625" style="1"/>
+    <col min="7424" max="7424" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7425" max="7437" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7438" max="7679" width="9.140625" style="1"/>
+    <col min="7680" max="7680" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7681" max="7693" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7694" max="7935" width="9.140625" style="1"/>
+    <col min="7936" max="7936" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7937" max="7949" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7950" max="8191" width="9.140625" style="1"/>
+    <col min="8192" max="8192" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8193" max="8205" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8206" max="8447" width="9.140625" style="1"/>
+    <col min="8448" max="8448" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8449" max="8461" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8462" max="8703" width="9.140625" style="1"/>
+    <col min="8704" max="8704" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8705" max="8717" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8718" max="8959" width="9.140625" style="1"/>
+    <col min="8960" max="8960" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8961" max="8973" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8974" max="9215" width="9.140625" style="1"/>
+    <col min="9216" max="9216" width="30.85546875" style="1" customWidth="1"/>
+    <col min="9217" max="9229" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9230" max="9471" width="9.140625" style="1"/>
+    <col min="9472" max="9472" width="30.85546875" style="1" customWidth="1"/>
+    <col min="9473" max="9485" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9486" max="9727" width="9.140625" style="1"/>
+    <col min="9728" max="9728" width="30.85546875" style="1" customWidth="1"/>
+    <col min="9729" max="9741" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9742" max="9983" width="9.140625" style="1"/>
+    <col min="9984" max="9984" width="30.85546875" style="1" customWidth="1"/>
+    <col min="9985" max="9997" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9998" max="10239" width="9.140625" style="1"/>
+    <col min="10240" max="10240" width="30.85546875" style="1" customWidth="1"/>
+    <col min="10241" max="10253" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10254" max="10495" width="9.140625" style="1"/>
+    <col min="10496" max="10496" width="30.85546875" style="1" customWidth="1"/>
+    <col min="10497" max="10509" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10510" max="10751" width="9.140625" style="1"/>
+    <col min="10752" max="10752" width="30.85546875" style="1" customWidth="1"/>
+    <col min="10753" max="10765" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10766" max="11007" width="9.140625" style="1"/>
+    <col min="11008" max="11008" width="30.85546875" style="1" customWidth="1"/>
+    <col min="11009" max="11021" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11022" max="11263" width="9.140625" style="1"/>
+    <col min="11264" max="11264" width="30.85546875" style="1" customWidth="1"/>
+    <col min="11265" max="11277" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11278" max="11519" width="9.140625" style="1"/>
+    <col min="11520" max="11520" width="30.85546875" style="1" customWidth="1"/>
+    <col min="11521" max="11533" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11534" max="11775" width="9.140625" style="1"/>
+    <col min="11776" max="11776" width="30.85546875" style="1" customWidth="1"/>
+    <col min="11777" max="11789" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11790" max="12031" width="9.140625" style="1"/>
+    <col min="12032" max="12032" width="30.85546875" style="1" customWidth="1"/>
+    <col min="12033" max="12045" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12046" max="12287" width="9.140625" style="1"/>
+    <col min="12288" max="12288" width="30.85546875" style="1" customWidth="1"/>
+    <col min="12289" max="12301" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12302" max="12543" width="9.140625" style="1"/>
+    <col min="12544" max="12544" width="30.85546875" style="1" customWidth="1"/>
+    <col min="12545" max="12557" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12558" max="12799" width="9.140625" style="1"/>
+    <col min="12800" max="12800" width="30.85546875" style="1" customWidth="1"/>
+    <col min="12801" max="12813" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12814" max="13055" width="9.140625" style="1"/>
+    <col min="13056" max="13056" width="30.85546875" style="1" customWidth="1"/>
+    <col min="13057" max="13069" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13070" max="13311" width="9.140625" style="1"/>
+    <col min="13312" max="13312" width="30.85546875" style="1" customWidth="1"/>
+    <col min="13313" max="13325" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13326" max="13567" width="9.140625" style="1"/>
+    <col min="13568" max="13568" width="30.85546875" style="1" customWidth="1"/>
+    <col min="13569" max="13581" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13582" max="13823" width="9.140625" style="1"/>
+    <col min="13824" max="13824" width="30.85546875" style="1" customWidth="1"/>
+    <col min="13825" max="13837" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13838" max="14079" width="9.140625" style="1"/>
+    <col min="14080" max="14080" width="30.85546875" style="1" customWidth="1"/>
+    <col min="14081" max="14093" width="14.5703125" style="1" customWidth="1"/>
+    <col min="14094" max="14335" width="9.140625" style="1"/>
+    <col min="14336" max="14336" width="30.85546875" style="1" customWidth="1"/>
+    <col min="14337" max="14349" width="14.5703125" style="1" customWidth="1"/>
+    <col min="14350" max="14591" width="9.140625" style="1"/>
+    <col min="14592" max="14592" width="30.85546875" style="1" customWidth="1"/>
+    <col min="14593" max="14605" width="14.5703125" style="1" customWidth="1"/>
+    <col min="14606" max="14847" width="9.140625" style="1"/>
+    <col min="14848" max="14848" width="30.85546875" style="1" customWidth="1"/>
+    <col min="14849" max="14861" width="14.5703125" style="1" customWidth="1"/>
+    <col min="14862" max="15103" width="9.140625" style="1"/>
+    <col min="15104" max="15104" width="30.85546875" style="1" customWidth="1"/>
+    <col min="15105" max="15117" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15118" max="15359" width="9.140625" style="1"/>
+    <col min="15360" max="15360" width="30.85546875" style="1" customWidth="1"/>
+    <col min="15361" max="15373" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15374" max="15615" width="9.140625" style="1"/>
+    <col min="15616" max="15616" width="30.85546875" style="1" customWidth="1"/>
+    <col min="15617" max="15629" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15630" max="15871" width="9.140625" style="1"/>
+    <col min="15872" max="15872" width="30.85546875" style="1" customWidth="1"/>
+    <col min="15873" max="15885" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15886" max="16127" width="9.140625" style="1"/>
+    <col min="16128" max="16128" width="30.85546875" style="1" customWidth="1"/>
+    <col min="16129" max="16141" width="14.5703125" style="1" customWidth="1"/>
+    <col min="16142" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="51.75" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+    <row r="1" spans="1:22" ht="51.75" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -702,25 +732,24 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -728,10 +757,9 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>2010</v>
       </c>
@@ -768,127 +796,123 @@
       <c r="M3" s="4">
         <v>2021</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="W3" s="6"/>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16">
+        <v>6</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2</v>
+      </c>
+      <c r="K4" s="16">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16">
+        <v>6</v>
+      </c>
+      <c r="M4" s="16">
+        <v>4</v>
+      </c>
+      <c r="N4" s="16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="5" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17">
+        <v>302</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7">
-        <v>18</v>
-      </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>20</v>
-      </c>
-      <c r="J4" s="7">
-        <v>17</v>
-      </c>
-      <c r="K4" s="7">
-        <v>46</v>
-      </c>
-      <c r="L4" s="7">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9</v>
+      <c r="D5" s="17">
+        <v>1707</v>
+      </c>
+      <c r="E5" s="17">
+        <v>6300</v>
+      </c>
+      <c r="F5" s="17">
+        <v>688</v>
+      </c>
+      <c r="G5" s="17">
+        <v>77</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17">
+        <v>500</v>
+      </c>
+      <c r="K5" s="17">
+        <v>2220</v>
+      </c>
+      <c r="L5" s="17">
+        <v>4852</v>
+      </c>
+      <c r="M5" s="17">
+        <v>313</v>
+      </c>
+      <c r="N5" s="17">
+        <v>2870</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>311</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4974</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1181</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4276</v>
-      </c>
-      <c r="F5" s="7">
-        <v>996</v>
-      </c>
-      <c r="G5" s="7">
-        <v>5033</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8824</v>
-      </c>
-      <c r="I5" s="7">
-        <v>60434</v>
-      </c>
-      <c r="J5" s="7">
-        <v>7747</v>
-      </c>
-      <c r="K5" s="7">
-        <v>23199</v>
-      </c>
-      <c r="L5" s="7">
-        <v>13115</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8083</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5899</v>
-      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
-    <row r="6" spans="1:23" ht="51" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:22">
       <c r="B10" s="3"/>
     </row>
-    <row r="15" spans="1:23">
-      <c r="E15" s="9"/>
+    <row r="15" spans="1:22">
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
